--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P14_trail7 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P14_trail7 Features.xlsx
@@ -3586,7 +3586,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3597,29 +3597,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3640,115 +3638,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -3765,72 +3753,66 @@
         <v>4.272099063003094e-08</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>3.166472197467146</v>
+        <v>3.056744472411702e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>12.64952368364469</v>
+        <v>1.281589843572886e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>3.056744472411702e-07</v>
+        <v>-0.103289925465795</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>1.281589843572886e-06</v>
+        <v>0.3741770293525693</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.103289925465795</v>
+        <v>0.1502833762910494</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.3741770293525693</v>
+        <v>1.766946014140962</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.1502833762910494</v>
+        <v>1.655300838304183</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.71072839033317</v>
+        <v>4.13676441774559</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.655300838304183</v>
+        <v>5.315366947103023e-16</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.13676441774559</v>
+        <v>145738579.9588305</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>5.315366947103023e-16</v>
+        <v>7.847297983564052e-07</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>145738579.9588305</v>
+        <v>11.28969784126792</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>7.847297983564052e-07</v>
+        <v>0.0001356125693785577</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>11.28969784126792</v>
+        <v>9.42313922561436</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001356125693785577</v>
+        <v>1.187578685942029</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>9.42313922561436</v>
+        <v>0.01204179307345451</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.187578685942029</v>
+        <v>2.867219791469554</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01204179307345451</v>
+        <v>0.9478390653151617</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.867219791469554</v>
+        <v>1.724372335087547</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9478390653151617</v>
+        <v>26</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.724372335087547</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.1983202642431068</v>
       </c>
     </row>
@@ -3845,72 +3827,66 @@
         <v>3.154311082894987e-08</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>2.324527601284768</v>
+        <v>2.141925264110875e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>7.83897105607981</v>
+        <v>1.277966416674248e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>2.141925264110875e-07</v>
+        <v>-0.09291839365828096</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>1.277966416674248e-06</v>
+        <v>0.3550936121181942</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.09291839365828096</v>
+        <v>0.1343414334211864</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.3550936121181942</v>
+        <v>1.768631233645028</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.1343414334211864</v>
+        <v>1.684192068429521</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.711061927916051</v>
+        <v>4.172159300014758</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.684192068429521</v>
+        <v>5.225562730003446e-16</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.172159300014758</v>
+        <v>145411372.5012361</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>5.225562730003446e-16</v>
+        <v>7.855826436720151e-07</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>145411372.5012361</v>
+        <v>11.04917400214522</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>7.855826436720151e-07</v>
+        <v>0.0001354844758138262</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>11.04917400214522</v>
+        <v>8.356460892114157</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001354844758138262</v>
+        <v>1.250792471331805</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>8.356460892114157</v>
+        <v>0.009460940375184149</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.250792471331805</v>
+        <v>3.016167610163419</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.009460940375184149</v>
+        <v>0.9491265369616543</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.016167610163419</v>
+        <v>1.75506041448546</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9491265369616543</v>
+        <v>26</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.75506041448546</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.1880340079808227</v>
       </c>
     </row>
@@ -3925,72 +3901,66 @@
         <v>2.498835711225178e-08</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>1.427904880841056</v>
+        <v>1.522804578968998e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>3.306984702156837</v>
+        <v>1.275567757705256e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.522804578968998e-07</v>
+        <v>-0.07801699623740542</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>1.275567757705256e-06</v>
+        <v>0.3233136807839473</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.07801699623740542</v>
+        <v>0.1103779823397121</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.3233136807839473</v>
+        <v>1.773126973668806</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.1103779823397121</v>
+        <v>1.745091366652554</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.715409498843592</v>
+        <v>4.180863281760333</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.745091366652554</v>
+        <v>5.203827574047693e-16</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.180863281760333</v>
+        <v>147562852.2837017</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>5.203827574047693e-16</v>
+        <v>7.757674207007295e-07</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>147562852.2837017</v>
+        <v>11.33122805869959</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>7.757674207007295e-07</v>
+        <v>0.000150591391963548</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>11.33122805869959</v>
+        <v>7.745451082499345</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.000150591391963548</v>
+        <v>1.69095442623989</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>7.745451082499345</v>
+        <v>0.009034280664761194</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.69095442623989</v>
+        <v>3.086305283632144</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.009034280664761194</v>
+        <v>0.9502320723263712</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.086305283632144</v>
+        <v>1.796107050063537</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9502320723263712</v>
+        <v>43</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.796107050063537</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.1737417128343001</v>
       </c>
     </row>
@@ -4005,72 +3975,66 @@
         <v>2.130375825662561e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.7567572922447079</v>
+        <v>1.134403169112655e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>0.4970675938845406</v>
+        <v>1.273941488542204e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1.134403169112655e-07</v>
+        <v>-0.06338356254048882</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>1.273941488542204e-06</v>
+        <v>0.3035746647778191</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.06338356254048882</v>
+        <v>0.09603034383650311</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.3035746647778191</v>
+        <v>1.768596524006921</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.09603034383650311</v>
+        <v>1.706077560737251</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.712853603909281</v>
+        <v>4.173496431244983</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.706077560737251</v>
+        <v>5.222214868599915e-16</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.173496431244983</v>
+        <v>147668260.8264653</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>5.222214868599915e-16</v>
+        <v>7.740497956117585e-07</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>147668260.8264653</v>
+        <v>11.38751748707696</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>7.740497956117585e-07</v>
+        <v>0.0001432864221403801</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>11.38751748707696</v>
+        <v>8.416665165465528</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001432864221403801</v>
+        <v>1.439727932888153</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>8.416665165465528</v>
+        <v>0.01015044632532949</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.439727932888153</v>
+        <v>3.093098070635308</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01015044632532949</v>
+        <v>0.9527461577626209</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.093098070635308</v>
+        <v>1.750648501166174</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9527461577626209</v>
+        <v>18</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.750648501166174</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.1799556404786262</v>
       </c>
     </row>
@@ -4085,72 +4049,66 @@
         <v>1.928704731369354e-08</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.4009904109398855</v>
+        <v>8.67715827810188e-08</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.6775312773372892</v>
+        <v>1.272807746629778e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>8.67715827810188e-08</v>
+        <v>-0.04906322925203927</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>1.272807746629778e-06</v>
+        <v>0.2879481533281434</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.04906322925203927</v>
+        <v>0.0852341388661635</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.2879481533281434</v>
+        <v>1.757022374585252</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.0852341388661635</v>
+        <v>1.667726044522377</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.700143238663548</v>
+        <v>4.17161899578564</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.667726044522377</v>
+        <v>5.226916437754349e-16</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.17161899578564</v>
+        <v>147137772.1146488</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>5.226916437754349e-16</v>
+        <v>7.751808185470156e-07</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>147137772.1146488</v>
+        <v>11.31602527755802</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>7.751808185470156e-07</v>
+        <v>0.0001333574127315577</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>11.31602527755802</v>
+        <v>9.515987588181174</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001333574127315577</v>
+        <v>1.154477981910296</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>9.515987588181174</v>
+        <v>0.01207604979009215</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.154477981910296</v>
+        <v>2.935364331273269</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.01207604979009215</v>
+        <v>0.9529310447251447</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.935364331273269</v>
+        <v>1.702460578314701</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9529310447251447</v>
+        <v>21</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.702460578314701</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.1969185355012703</v>
       </c>
     </row>
@@ -4165,72 +4123,66 @@
         <v>1.824451854161526e-08</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.295455504217206</v>
+        <v>6.806899110567911e-08</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.9026617793847729</v>
+        <v>1.272005537943804e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>6.806899110567911e-08</v>
+        <v>-0.0373675165104172</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>1.272005537943804e-06</v>
+        <v>0.2767865958137407</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.0373675165104172</v>
+        <v>0.07795890179591322</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.2767865958137407</v>
+        <v>1.762390278493931</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.07795890179591322</v>
+        <v>1.660444803470972</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.700536077427724</v>
+        <v>4.18263653553927</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.660444803470972</v>
+        <v>5.199416121720214e-16</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.18263653553927</v>
+        <v>153822795.2835127</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>5.199416121720214e-16</v>
+        <v>7.453954758019796e-07</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>153822795.2835127</v>
+        <v>12.30257368058393</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>7.453954758019796e-07</v>
+        <v>0.0001337099913021196</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>12.30257368058393</v>
+        <v>9.243438767983797</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001337099913021196</v>
+        <v>1.176808920680145</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>9.243438767983797</v>
+        <v>0.01142433679486876</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.176808920680145</v>
+        <v>2.91600746114989</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01142433679486876</v>
+        <v>0.955727810657522</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.91600746114989</v>
+        <v>1.731237521843476</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.955727810657522</v>
+        <v>21</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.731237521843476</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.1966541757920529</v>
       </c>
     </row>
@@ -4245,72 +4197,66 @@
         <v>1.772571490848423e-08</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.3113143967285334</v>
+        <v>6.542334105731185e-08</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-0.8274786818001152</v>
+        <v>1.271407446456084e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>6.542334105731185e-08</v>
+        <v>-0.0301351748115146</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>1.271407446456084e-06</v>
+        <v>0.2722846396536729</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.0301351748115146</v>
+        <v>0.07502603105154762</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.2722846396536729</v>
+        <v>1.764148442540122</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.07502603105154762</v>
+        <v>1.630319146855668</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.703140420223045</v>
+        <v>4.242315100061315</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.630319146855668</v>
+        <v>5.054159976236613e-16</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>4.242315100061315</v>
+        <v>161922828.5435868</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>5.054159976236613e-16</v>
+        <v>7.096597699524663e-07</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>161922828.5435868</v>
+        <v>13.25150325649033</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>7.096597699524663e-07</v>
+        <v>0.000133732151466686</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>13.25150325649033</v>
+        <v>8.380677139824458</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.000133732151466686</v>
+        <v>1.233511395885092</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>8.380677139824458</v>
+        <v>0.009392777866702718</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.233511395885092</v>
+        <v>3.00422326954325</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.009392777866702718</v>
+        <v>0.9559893358266681</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>3.00422326954325</v>
+        <v>1.76460440682019</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9559893358266681</v>
+        <v>21</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.76460440682019</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.1919970256673938</v>
       </c>
     </row>
@@ -4325,72 +4271,66 @@
         <v>1.745923634021407e-08</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.3662097378324376</v>
+        <v>6.542334105731185e-08</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-0.7173680452109856</v>
+        <v>1.270909504064594e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>6.542334105731185e-08</v>
+        <v>-0.02716879789673694</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>1.270909504064594e-06</v>
+        <v>0.2727745445964667</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.02716879789673694</v>
+        <v>0.07513553565954086</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.2727745445964667</v>
+        <v>1.767072479361995</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.07513553565954086</v>
+        <v>1.602044248559999</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.706007882455278</v>
+        <v>4.363314375742529</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.602044248559999</v>
+        <v>4.777732385782328e-16</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>4.363314375742529</v>
+        <v>171396953.4426642</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>4.777732385782328e-16</v>
+        <v>6.70276136482415e-07</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>171396953.4426642</v>
+        <v>14.03550412926621</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>6.70276136482415e-07</v>
+        <v>0.0001399088910158244</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>14.03550412926621</v>
+        <v>7.57970169204471</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001399088910158244</v>
+        <v>1.450746455886115</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>7.57970169204471</v>
+        <v>0.008038028501434055</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.450746455886115</v>
+        <v>3.057942885669283</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.008038028501434055</v>
+        <v>0.9565138635645392</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>3.057942885669283</v>
+        <v>1.713606274864944</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9565138635645392</v>
+        <v>34</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.713606274864944</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.1888451555992198</v>
       </c>
     </row>
@@ -4405,72 +4345,66 @@
         <v>1.731449024723508e-08</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.4314296000097068</v>
+        <v>6.542334105731185e-08</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-0.6220866425655869</v>
+        <v>1.27044114797616e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>6.542334105731185e-08</v>
+        <v>-0.02722518836343871</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>1.27044114797616e-06</v>
+        <v>0.2748573504129451</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.02722518836343871</v>
+        <v>0.07628450399720961</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.2748573504129451</v>
+        <v>1.770592386617237</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.07628450399720961</v>
+        <v>1.563259542462056</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.707643905718863</v>
+        <v>4.622539426115582</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.563259542462056</v>
+        <v>4.256901310976531e-16</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>4.622539426115582</v>
+        <v>186229481.3973659</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>4.256901310976531e-16</v>
+        <v>6.146940761800556e-07</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>186229481.3973659</v>
+        <v>14.76353811642543</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>6.146940761800556e-07</v>
+        <v>0.0001519003610465486</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>14.76353811642543</v>
+        <v>7.652107605220235</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001519003610465486</v>
+        <v>1.684596593611028</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>7.652107605220235</v>
+        <v>0.008894487787794638</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.684596593611028</v>
+        <v>3.049527598686974</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.008894487787794638</v>
+        <v>0.9561303937360118</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>3.049527598686974</v>
+        <v>1.765780106097341</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9561303937360118</v>
+        <v>34</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.765780106097341</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.2067918450479476</v>
       </c>
     </row>
@@ -4485,72 +4419,66 @@
         <v>1.723223591111089e-08</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.4997423861006415</v>
+        <v>6.542334105731185e-08</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-0.5378384978080595</v>
+        <v>1.269957909629619e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>6.542334105731185e-08</v>
+        <v>-0.02870304980762227</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>1.269957909629619e-06</v>
+        <v>0.2767424390838072</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.02870304980762227</v>
+        <v>0.07740714120162173</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.2767424390838072</v>
+        <v>1.776921375824628</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.07740714120162173</v>
+        <v>1.530183227391261</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.719737776089009</v>
+        <v>5.320162346437669</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.530183227391261</v>
+        <v>3.213697978749479e-16</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>5.320162346437669</v>
+        <v>250043167.1738711</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>3.213697978749479e-16</v>
+        <v>4.586874863513507e-07</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>250043167.1738711</v>
+        <v>20.09254927899719</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>4.586874863513507e-07</v>
+        <v>0.0001424076942241453</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>20.09254927899719</v>
+        <v>10.77900611452993</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001424076942241453</v>
+        <v>1.115108439793834</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>10.77900611452993</v>
+        <v>0.01654591889776292</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.115108439793834</v>
+        <v>2.942478048485726</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.01654591889776292</v>
+        <v>0.9559606940263254</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>2.942478048485726</v>
+        <v>1.758571322580489</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9559606940263254</v>
+        <v>34</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.758571322580489</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.310479609188898</v>
       </c>
     </row>
@@ -4565,72 +4493,66 @@
         <v>1.721269004966394e-08</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.5660475408938332</v>
+        <v>6.542334105731185e-08</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-0.4686560650064551</v>
+        <v>1.269463223312092e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>6.542334105731185e-08</v>
+        <v>-0.02841091275733238</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>1.269463223312092e-06</v>
+        <v>0.2768336276664509</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.02841091275733238</v>
+        <v>0.07743799350947971</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.2768336276664509</v>
+        <v>1.866446166100017</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.07743799350947971</v>
+        <v>1.94903119234311</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.832525158250477</v>
+        <v>3.850723267727949</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.94903119234311</v>
+        <v>2.378972483956891e-16</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>3.850723267727949</v>
+        <v>323101135.8154377</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>2.378972483956891e-16</v>
+        <v>3.666735074914215e-07</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>323101135.8154377</v>
+        <v>24.83512717740036</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>3.666735074914215e-07</v>
+        <v>0.0001744249282522623</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>24.83512717740036</v>
+        <v>11.94440240509362</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001744249282522623</v>
+        <v>1.304872834556507</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>11.94440240509362</v>
+        <v>0.02488498627586262</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.304872834556507</v>
+        <v>3.010935529182358</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.02488498627586262</v>
+        <v>0.9615133115700164</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>3.010935529182358</v>
+        <v>1.550965968721712</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9615133115700164</v>
+        <v>33</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.550965968721712</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.3680235071731724</v>
       </c>
     </row>
@@ -4645,72 +4567,66 @@
         <v>1.727897563064475e-08</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.6208889338493274</v>
+        <v>6.542334105731185e-08</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-0.4321229540088671</v>
+        <v>1.26899132750784e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>6.542334105731185e-08</v>
+        <v>-0.02613718964121713</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>1.26899132750784e-06</v>
+        <v>0.2741820149734445</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.02613718964121713</v>
+        <v>0.07585071938406718</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.2741820149734445</v>
+        <v>1.890354823846155</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.07585071938406718</v>
+        <v>1.663661652151258</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.864296431105497</v>
+        <v>4.699881390858089</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.663661652151258</v>
+        <v>1.596982809642086e-16</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>4.699881390858089</v>
+        <v>463192351.9474257</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>1.596982809642086e-16</v>
+        <v>2.572364595411209e-07</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>463192351.9474257</v>
+        <v>34.26281182370505</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>2.572364595411209e-07</v>
+        <v>0.0001756910809187249</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>34.26281182370505</v>
+        <v>9.64440079900193</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001756910809187249</v>
+        <v>1.649059687271842</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>9.64440079900193</v>
+        <v>0.01634181220821445</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.649059687271842</v>
+        <v>3.138926701964457</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.01634181220821445</v>
+        <v>0.9624890021442472</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>3.138926701964457</v>
+        <v>1.508115724462145</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9624890021442472</v>
+        <v>35</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.508115724462145</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.4297757226792593</v>
       </c>
     </row>
@@ -4725,72 +4641,66 @@
         <v>1.742633092352836e-08</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.6556289408807333</v>
+        <v>6.542334105731185e-08</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-0.4341184163059677</v>
+        <v>1.268567103924615e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>6.542334105731185e-08</v>
+        <v>-0.02269656292354698</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>1.268567103924615e-06</v>
+        <v>0.2693377539206422</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.02269656292354698</v>
+        <v>0.07304934552058695</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.2693377539206422</v>
+        <v>1.902268001238947</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.07304934552058695</v>
+        <v>1.807571238664425</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.891318130370911</v>
+        <v>5.412868628257913</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.807571238664425</v>
+        <v>5.600548288087733e-17</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>5.412868628257913</v>
+        <v>1314854799.800305</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>5.600548288087733e-17</v>
+        <v>9.081533971741086e-08</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>1314854799.800305</v>
+        <v>96.82469513625959</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>9.081533971741086e-08</v>
+        <v>0.0001271112107615155</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>96.82469513625959</v>
+        <v>7.832924950720207</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001271112107615155</v>
+        <v>1.34582272349554</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>7.832924950720207</v>
+        <v>0.00779887189140596</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.34582272349554</v>
+        <v>3.324550366635305</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.00779887189140596</v>
+        <v>0.963828011679558</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>3.324550366635305</v>
+        <v>1.432685161771958</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.963828011679558</v>
+        <v>35</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.432685161771958</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.5815129607774125</v>
       </c>
     </row>
@@ -4805,72 +4715,66 @@
         <v>1.76279468199115e-08</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.6675886939176305</v>
+        <v>6.542334105731185e-08</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-0.4640251499436787</v>
+        <v>1.268203638285389e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>6.542334105731185e-08</v>
+        <v>-0.01886005578326563</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>1.268203638285389e-06</v>
+        <v>0.2634236852218812</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.01886005578326563</v>
+        <v>0.06973956761142923</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.2634236852218812</v>
+        <v>1.915984373092358</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.06973956761142923</v>
+        <v>2.08377761812325</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.914551724928761</v>
+        <v>4.720951888011382</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>2.08377761812325</v>
+        <v>2.546383790041117e-17</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>4.720951888011382</v>
+        <v>2924409365.172656</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>2.546383790041117e-17</v>
+        <v>4.095989807692646e-08</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>2924409365.172656</v>
+        <v>217.7710740171667</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>4.095989807692646e-08</v>
+        <v>0.0001122826136871778</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>217.7710740171667</v>
+        <v>7.665285023716432</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001122826136871778</v>
+        <v>1.439874533064161</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>7.665285023716432</v>
+        <v>0.006597344001235067</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.439874533064161</v>
+        <v>3.441637083582482</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.006597344001235067</v>
+        <v>0.9648912529548266</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>3.441637083582482</v>
+        <v>1.331456094316118</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9648912529548266</v>
+        <v>46</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.331456094316118</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.8099276189768128</v>
       </c>
     </row>
@@ -4885,72 +4789,66 @@
         <v>1.785637697627294e-08</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.6593170218181579</v>
+        <v>6.542334105731185e-08</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-0.5048587180658983</v>
+        <v>1.267901280898663e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>6.542334105731185e-08</v>
+        <v>-0.0153535462114389</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>1.267901280898663e-06</v>
+        <v>0.25750142291297</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.0153535462114389</v>
+        <v>0.06653614591096423</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.25750142291297</v>
+        <v>1.909993714484524</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.06653614591096423</v>
+        <v>2.393900410163497</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.906419814133564</v>
+        <v>4.915537097662068</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>2.393900410163497</v>
+        <v>1.941276296101158e-17</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>4.915537097662068</v>
+        <v>3826406815.888264</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>1.941276296101158e-17</v>
+        <v>3.125168579813433e-08</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>3826406815.888264</v>
+        <v>284.2298164196201</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>3.125168579813433e-08</v>
+        <v>0.0001109936912793792</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>284.2298164196201</v>
+        <v>7.817913096098993</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001109936912793792</v>
+        <v>1.68223617522442</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>7.817913096098993</v>
+        <v>0.006783908347252413</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.68223617522442</v>
+        <v>3.608015013363112</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.006783908347252413</v>
+        <v>0.9638492425335551</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>3.608015013363112</v>
+        <v>1.338757944056908</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9638492425335551</v>
+        <v>53</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.338757944056908</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>1.002864189147693</v>
       </c>
     </row>
@@ -4965,72 +4863,66 @@
         <v>1.80859086714474e-08</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.6374296829609242</v>
+        <v>6.621087948196542e-08</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-0.5423647719275539</v>
+        <v>1.267655371751033e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>6.621087948196542e-08</v>
+        <v>-0.01203302634513431</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>1.267655371751033e-06</v>
+        <v>0.2521481009901776</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.01203302634513431</v>
+        <v>0.06371872316776801</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.2521481009901776</v>
+        <v>1.910776807201328</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.06371872316776801</v>
+        <v>2.143244988380407</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.910605734070412</v>
+        <v>5.69923708612317</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>2.143244988380407</v>
+        <v>2.141430354493545e-17</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>5.69923708612317</v>
+        <v>3540617271.717466</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>2.141430354493545e-17</v>
+        <v>3.381846665870096e-08</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>3540617271.717466</v>
+        <v>268.4490810460915</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>3.381846665870096e-08</v>
+        <v>0.0001109405056091095</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>268.4490810460915</v>
+        <v>7.850997653896251</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001109405056091095</v>
+        <v>1.594045178934167</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>7.850997653896251</v>
+        <v>0.006838169096892379</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.594045178934167</v>
+        <v>3.55614705560306</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.006838169096892379</v>
+        <v>0.9637142608725261</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>3.55614705560306</v>
+        <v>1.353445744424577</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9637142608725261</v>
+        <v>53</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.353445744424577</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>1.200388781069889</v>
       </c>
     </row>
@@ -5407,7 +5299,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.606369250041373</v>
+        <v>1.630235406843276</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.453819353806387</v>
@@ -5496,7 +5388,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.649602548798465</v>
+        <v>1.678093416092462</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.255988305214541</v>
@@ -5585,7 +5477,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.662098080976598</v>
+        <v>1.69455751882084</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.329376172027657</v>
@@ -5674,7 +5566,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.677230011004163</v>
+        <v>1.7089738903558</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.416602955391969</v>
@@ -5763,7 +5655,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.672886332401856</v>
+        <v>1.706239847588136</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.414417971110353</v>
@@ -5852,7 +5744,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.641565378313179</v>
+        <v>1.678947790233863</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.408846842398808</v>
@@ -5941,7 +5833,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.680534363323173</v>
+        <v>1.718705083782811</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.353708462460809</v>
@@ -6030,7 +5922,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.681040892838397</v>
+        <v>1.716323035097217</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.532841121009791</v>
@@ -6119,7 +6011,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.671287523661708</v>
+        <v>1.708317813685376</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.520384686643865</v>
@@ -6208,7 +6100,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.673810915521434</v>
+        <v>1.712581104230342</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.327214652924202</v>
@@ -6297,7 +6189,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.691410756286952</v>
+        <v>1.727177154425644</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.494210051154103</v>
@@ -6386,7 +6278,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.692402978086054</v>
+        <v>1.728768394734198</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.507250419179568</v>
@@ -6475,7 +6367,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.650603897982691</v>
+        <v>1.689820207025587</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.547902172102864</v>
@@ -6564,7 +6456,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.640914873213206</v>
+        <v>1.678440518147865</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.485753706490722</v>
@@ -6653,7 +6545,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.6389986058085</v>
+        <v>1.674407913927839</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.416641989974216</v>
@@ -6742,7 +6634,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.662627558166636</v>
+        <v>1.688119661808402</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.481219095808074</v>
@@ -6831,7 +6723,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.669266789249275</v>
+        <v>1.693405237739177</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.424327757908576</v>
@@ -6920,7 +6812,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.660175821453909</v>
+        <v>1.683161290563329</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.498232543169557</v>
@@ -7009,7 +6901,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.687191702560049</v>
+        <v>1.707483432397908</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.643018493592535</v>
@@ -7098,7 +6990,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.680798569307809</v>
+        <v>1.694902695481207</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.179757504004156</v>
@@ -7187,7 +7079,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.704346102001719</v>
+        <v>1.717788367129043</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.696410510668472</v>
@@ -7276,7 +7168,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.709096001665239</v>
+        <v>1.71810502011122</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.640667252912736</v>
@@ -7365,7 +7257,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.711422089105098</v>
+        <v>1.722850988538084</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.539350448788843</v>
@@ -7454,7 +7346,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.691324647184517</v>
+        <v>1.703588626266783</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.803458580532888</v>
@@ -7543,7 +7435,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.690822699829547</v>
+        <v>1.702171757552885</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.707370004298708</v>
@@ -7632,7 +7524,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.687276363605534</v>
+        <v>1.702093207637277</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.756836047215747</v>
@@ -7721,7 +7613,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.678272009191378</v>
+        <v>1.693867643640427</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.675264698246597</v>
@@ -7810,7 +7702,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.719218880557277</v>
+        <v>1.725905777948277</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.697162044271017</v>
@@ -7899,7 +7791,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.716705434740734</v>
+        <v>1.72659819076084</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.849908174767122</v>
@@ -7988,7 +7880,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.700658265811007</v>
+        <v>1.715729914737822</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.060652196081672</v>
@@ -8077,7 +7969,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.664799047449083</v>
+        <v>1.690194945242194</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.091927309983133</v>
@@ -8166,7 +8058,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.683362031741728</v>
+        <v>1.705900921564543</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.712495936123725</v>
@@ -8255,7 +8147,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.686480621946295</v>
+        <v>1.696287724129861</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.758904426716783</v>
@@ -8344,7 +8236,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.636573280879201</v>
+        <v>1.661266288747028</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.596016800047023</v>
@@ -8433,7 +8325,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.646387777568262</v>
+        <v>1.670372748261365</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.786868040711723</v>
@@ -8522,7 +8414,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.64741353802289</v>
+        <v>1.672999954092102</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.772197162217136</v>
@@ -8611,7 +8503,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.620611526381334</v>
+        <v>1.647079186439248</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.690345222486946</v>
@@ -8700,7 +8592,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.616330019055135</v>
+        <v>1.644364783531922</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.649733818665733</v>
@@ -8789,7 +8681,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.577900889013481</v>
+        <v>1.608168344925708</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.311761601431935</v>
@@ -8878,7 +8770,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.571878014783945</v>
+        <v>1.601053704640955</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.336393703398093</v>
@@ -8967,7 +8859,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.573966803622787</v>
+        <v>1.599534024916567</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.295336650629507</v>
@@ -9056,7 +8948,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.566958890195877</v>
+        <v>1.592444896249447</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.380339710169838</v>
@@ -9145,7 +9037,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.596314991649196</v>
+        <v>1.621015217155223</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.403149683015721</v>
@@ -9234,7 +9126,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.582183439859415</v>
+        <v>1.605318949506924</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.359372648499827</v>
@@ -9323,7 +9215,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.591430818060725</v>
+        <v>1.614585190671302</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.367038092226228</v>
@@ -9412,7 +9304,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.616255082267446</v>
+        <v>1.634404669647144</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.386578911717306</v>
@@ -9501,7 +9393,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.620245432916521</v>
+        <v>1.636096345924848</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.427833714140887</v>
@@ -9590,7 +9482,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.601961801557764</v>
+        <v>1.616933512459463</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.261734445837437</v>
@@ -9679,7 +9571,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.623094860786873</v>
+        <v>1.636757301843227</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.418248682701635</v>
@@ -9768,7 +9660,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.627102988539308</v>
+        <v>1.642048893869686</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.400535973691495</v>
@@ -9857,7 +9749,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.638322455603356</v>
+        <v>1.65272437163385</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.219550734540995</v>
@@ -9946,7 +9838,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.643907376404624</v>
+        <v>1.654942998109048</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.379587276857254</v>
@@ -10035,7 +9927,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.667798817166356</v>
+        <v>1.675742700992993</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.352247028552054</v>
@@ -10124,7 +10016,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.71991180389431</v>
+        <v>1.718558147001699</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.447466396900762</v>
@@ -10213,7 +10105,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.710555984122279</v>
+        <v>1.705320368237277</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.409066569829437</v>
@@ -10302,7 +10194,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.681608552195789</v>
+        <v>1.687978179042505</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.525400612838636</v>
@@ -10391,7 +10283,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.690193765031223</v>
+        <v>1.699582086557051</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.435402877724737</v>
@@ -10480,7 +10372,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.648941708079387</v>
+        <v>1.66206630050741</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.519116299640155</v>
@@ -10569,7 +10461,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.663585341367967</v>
+        <v>1.675453517994049</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.433122384406</v>
@@ -10658,7 +10550,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.666843887145582</v>
+        <v>1.679343051865865</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.364275039894404</v>
@@ -10747,7 +10639,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.638250444128605</v>
+        <v>1.656062153989837</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.397099674825563</v>
@@ -11033,7 +10925,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.730940121857782</v>
+        <v>1.716208236092557</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.937146959956763</v>
@@ -11122,7 +11014,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.763426429921298</v>
+        <v>1.746488513602992</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.057415366899697</v>
@@ -11211,7 +11103,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.757910409572938</v>
+        <v>1.741663787366944</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.850972491938009</v>
@@ -11300,7 +11192,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.794262302274679</v>
+        <v>1.770000234070779</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.955778610808899</v>
@@ -11389,7 +11281,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.799432560472202</v>
+        <v>1.771133671302736</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>4.155701431455422</v>
@@ -11478,7 +11370,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.78862947796287</v>
+        <v>1.764818018414173</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>4.3363892500015</v>
@@ -11567,7 +11459,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.78653943129273</v>
+        <v>1.758951328722715</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>4.360199942511482</v>
@@ -11656,7 +11548,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.784124835496855</v>
+        <v>1.759509963631531</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.558920603979374</v>
@@ -11745,7 +11637,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.777114269677687</v>
+        <v>1.755187672338432</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.559659851171193</v>
@@ -11834,7 +11726,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.774462915304305</v>
+        <v>1.754531893368277</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.548362862352619</v>
@@ -11923,7 +11815,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.775732876408622</v>
+        <v>1.762377284992402</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.77624400343153</v>
@@ -12012,7 +11904,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.767317848739109</v>
+        <v>1.75309850800424</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.452859958712801</v>
@@ -12101,7 +11993,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.736517385449302</v>
+        <v>1.731228072346976</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.257839455797617</v>
@@ -12190,7 +12082,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.712289050285335</v>
+        <v>1.708037834820516</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.47570362862403</v>
@@ -12279,7 +12171,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.699163836241249</v>
+        <v>1.700795887910374</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.274369891869014</v>
@@ -12368,7 +12260,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.7089467065427</v>
+        <v>1.705734979912451</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.468976940438219</v>
@@ -12457,7 +12349,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.684623081395465</v>
+        <v>1.682725358401891</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.351064078882337</v>
@@ -12546,7 +12438,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.678378219617446</v>
+        <v>1.678431449539664</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.170103263327402</v>
@@ -12635,7 +12527,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.685290943043262</v>
+        <v>1.688126460996762</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.97966775964896</v>
@@ -12724,7 +12616,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.679362177458882</v>
+        <v>1.683812217279528</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.18459971425104</v>
@@ -12813,7 +12705,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.690346107551204</v>
+        <v>1.689457361412315</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.486556594784752</v>
@@ -12902,7 +12794,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.69535383029654</v>
+        <v>1.696959732970516</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.391757844474003</v>
@@ -12991,7 +12883,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.702663947867683</v>
+        <v>1.698252872991906</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.45075535427743</v>
@@ -13080,7 +12972,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.704303949240327</v>
+        <v>1.697546137696301</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.586391057109669</v>
@@ -13169,7 +13061,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.699439342807312</v>
+        <v>1.694795590674757</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.215924185561339</v>
@@ -13258,7 +13150,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.703981310405349</v>
+        <v>1.699856846392542</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.196411228222735</v>
@@ -13347,7 +13239,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.711971342439409</v>
+        <v>1.706941504216615</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.320389305328255</v>
@@ -13436,7 +13328,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.732961153308392</v>
+        <v>1.722607528728682</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.592266210202756</v>
@@ -13525,7 +13417,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.745470720346848</v>
+        <v>1.73749957775888</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.3689306854925</v>
@@ -13614,7 +13506,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.739533106214551</v>
+        <v>1.732745882985201</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.436987774861609</v>
@@ -13703,7 +13595,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.728686310496655</v>
+        <v>1.726087523465104</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.543858761420497</v>
@@ -13792,7 +13684,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.744367102223783</v>
+        <v>1.739501423824382</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.604848819479319</v>
@@ -13881,7 +13773,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.740549041806248</v>
+        <v>1.738771190113289</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.969769414899757</v>
@@ -13970,7 +13862,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.703628814044303</v>
+        <v>1.70265958967395</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.87346917780624</v>
@@ -14059,7 +13951,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.688893554742903</v>
+        <v>1.693754958656416</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.74949278469813</v>
@@ -14148,7 +14040,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.675322975523773</v>
+        <v>1.687053430210522</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.816772447810592</v>
@@ -14237,7 +14129,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.668421905565775</v>
+        <v>1.680629627336442</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.665950537519227</v>
@@ -14326,7 +14218,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.661866434478863</v>
+        <v>1.682901082017236</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.807311691667884</v>
@@ -14415,7 +14307,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.658477066090974</v>
+        <v>1.674996163667766</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.728548143943043</v>
@@ -14504,7 +14396,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.651645736626639</v>
+        <v>1.66477134369819</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.80360574567978</v>
@@ -14593,7 +14485,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.647568425705454</v>
+        <v>1.655753076548914</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.831112335871111</v>
@@ -14682,7 +14574,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.640259579132759</v>
+        <v>1.649573490773236</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.749392187457156</v>
@@ -14771,7 +14663,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.64332440696596</v>
+        <v>1.654107399279353</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.805916924920045</v>
@@ -14860,7 +14752,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.650036445484893</v>
+        <v>1.663047773652927</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.707047196491812</v>
@@ -14949,7 +14841,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.667784464253589</v>
+        <v>1.680850898913197</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.705620229599857</v>
@@ -15038,7 +14930,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.674254508272889</v>
+        <v>1.685708415093563</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.88324322829823</v>
@@ -15127,7 +15019,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.689711359365222</v>
+        <v>1.696795230593793</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.904332719120366</v>
@@ -15216,7 +15108,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.711949962370436</v>
+        <v>1.714348293839011</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.69429454296709</v>
@@ -15305,7 +15197,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.727714152549215</v>
+        <v>1.730438219167907</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.24877565446573</v>
@@ -15394,7 +15286,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.732178337253429</v>
+        <v>1.73281114577188</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.340759393067783</v>
@@ -15483,7 +15375,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.740004117544259</v>
+        <v>1.7353868569111</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.569191898884163</v>
@@ -15572,7 +15464,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.734907707265474</v>
+        <v>1.730804841439178</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.520558207186933</v>
@@ -15661,7 +15553,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.742675794526897</v>
+        <v>1.730576432948775</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.212792103272121</v>
@@ -15750,7 +15642,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.754672887833619</v>
+        <v>1.745299025286293</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.434405672098114</v>
@@ -15839,7 +15731,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.768413015094247</v>
+        <v>1.756251498558183</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.257341861018918</v>
@@ -15928,7 +15820,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.764726131127953</v>
+        <v>1.757940791157426</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.422021010893336</v>
@@ -16017,7 +15909,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.774490839179391</v>
+        <v>1.769086501313488</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.353465678480111</v>
@@ -16106,7 +15998,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.772278838347966</v>
+        <v>1.758249189948092</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.299184086724877</v>
@@ -16195,7 +16087,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.770807433058306</v>
+        <v>1.755100651208342</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.585344938774787</v>
@@ -16284,7 +16176,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.764235479225667</v>
+        <v>1.749351277821114</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.286471590331158</v>
@@ -16373,7 +16265,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.766999155910371</v>
+        <v>1.752033646913299</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.537773720892837</v>
@@ -16659,7 +16551,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.696310251214465</v>
+        <v>1.667510606572598</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.486791779855355</v>
@@ -16748,7 +16640,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.706984640616305</v>
+        <v>1.682154765480958</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.358032757369872</v>
@@ -16837,7 +16729,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.708260045115717</v>
+        <v>1.682733418959338</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.233378664652192</v>
@@ -16926,7 +16818,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.700525321000608</v>
+        <v>1.66844755945487</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.09730655970533</v>
@@ -17015,7 +16907,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.696751955546636</v>
+        <v>1.672941144959433</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.507482362079235</v>
@@ -17104,7 +16996,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.674032552583082</v>
+        <v>1.655563193773725</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.286860235032149</v>
@@ -17193,7 +17085,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.685351359862591</v>
+        <v>1.663964696961154</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.129489982422378</v>
@@ -17282,7 +17174,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.685537602412636</v>
+        <v>1.663460258836656</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.444987094399775</v>
@@ -17371,7 +17263,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.679279702537264</v>
+        <v>1.657965285213344</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.511258354701268</v>
@@ -17460,7 +17352,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.681325240485782</v>
+        <v>1.664791847079877</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.530527341408164</v>
@@ -17549,7 +17441,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.684269535016127</v>
+        <v>1.665041166904193</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.03195292451063</v>
@@ -17638,7 +17530,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.693253613044303</v>
+        <v>1.666110001934457</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.122082713568925</v>
@@ -17727,7 +17619,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.682075372942823</v>
+        <v>1.658921651287585</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.497090436993558</v>
@@ -17816,7 +17708,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.674972981267874</v>
+        <v>1.646162375988178</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.420235327248529</v>
@@ -17905,7 +17797,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.671815658266469</v>
+        <v>1.646454336067708</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.320564549662588</v>
@@ -17994,7 +17886,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.675864178840379</v>
+        <v>1.644457883409397</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.705272561453895</v>
@@ -18083,7 +17975,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.662360603085552</v>
+        <v>1.631372516625059</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.930225683575197</v>
@@ -18172,7 +18064,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.664573528896533</v>
+        <v>1.632203153398633</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.037330683089963</v>
@@ -18261,7 +18153,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.673119436622649</v>
+        <v>1.64874137348455</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.899034861907885</v>
@@ -18350,7 +18242,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.663287554207446</v>
+        <v>1.632002668063777</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.831204514798903</v>
@@ -18439,7 +18331,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.66373834355882</v>
+        <v>1.633619823399822</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.970652237437505</v>
@@ -18528,7 +18420,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.645255088628049</v>
+        <v>1.622750600167746</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.841965968327788</v>
@@ -18617,7 +18509,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.652217250114762</v>
+        <v>1.632654338038777</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.67355028625111</v>
@@ -18706,7 +18598,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.653505014297034</v>
+        <v>1.634190126032645</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.806427785928336</v>
@@ -18795,7 +18687,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.648846798956932</v>
+        <v>1.631257663692969</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.799506578043272</v>
@@ -18884,7 +18776,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.64416236795448</v>
+        <v>1.628661071756936</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.872767489359185</v>
@@ -18973,7 +18865,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.657309969767934</v>
+        <v>1.643292213498236</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.858818225839173</v>
@@ -19062,7 +18954,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.660957732633704</v>
+        <v>1.646101575452038</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.645776444839241</v>
@@ -19151,7 +19043,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.667549998480859</v>
+        <v>1.655132709896649</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.847427726701033</v>
@@ -19240,7 +19132,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.656342001155118</v>
+        <v>1.644642503868321</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.688978413275438</v>
@@ -19329,7 +19221,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.661951948991687</v>
+        <v>1.654893213308918</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.649076399260432</v>
@@ -19418,7 +19310,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.673608643617103</v>
+        <v>1.663151027306519</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.827691934631742</v>
@@ -19507,7 +19399,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.669478164818933</v>
+        <v>1.659853269191976</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.764943531015724</v>
@@ -19596,7 +19488,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.666456476542446</v>
+        <v>1.667222555695497</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.785656152613107</v>
@@ -19685,7 +19577,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.667134895637157</v>
+        <v>1.668029698102736</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.770541867715098</v>
@@ -19774,7 +19666,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.680842480219766</v>
+        <v>1.679368778512481</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.68417576539908</v>
@@ -19863,7 +19755,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.688394466632396</v>
+        <v>1.685267071965731</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.515943387236973</v>
@@ -19952,7 +19844,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.675965949172949</v>
+        <v>1.6714153527588</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.405266476478567</v>
@@ -20041,7 +19933,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.664868820294117</v>
+        <v>1.662257209009312</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.102656219049369</v>
@@ -20130,7 +20022,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.672580497412083</v>
+        <v>1.663560825584629</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.284185629481866</v>
@@ -20219,7 +20111,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.671960507353298</v>
+        <v>1.661326572972477</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.358746737931041</v>
@@ -20308,7 +20200,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.67107289053084</v>
+        <v>1.661870120129776</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.434552859728039</v>
@@ -20397,7 +20289,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.699526250436593</v>
+        <v>1.693751281520579</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.072176955493084</v>
@@ -20486,7 +20378,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.695751164850631</v>
+        <v>1.69354295134711</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.829091859731304</v>
@@ -20575,7 +20467,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.706842689856306</v>
+        <v>1.703294704496205</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.099784569973227</v>
@@ -20664,7 +20556,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.721117845690184</v>
+        <v>1.716070080131657</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.224904978354401</v>
@@ -20753,7 +20645,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.722193722660185</v>
+        <v>1.72189157615755</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.072291982519036</v>
@@ -20842,7 +20734,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.723747582630969</v>
+        <v>1.721132028224974</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.300569754737706</v>
@@ -20931,7 +20823,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.734926332742712</v>
+        <v>1.73101429658554</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.224840625513479</v>
@@ -21020,7 +20912,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.746503904166169</v>
+        <v>1.741074642534307</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.180209224409626</v>
@@ -21109,7 +21001,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.758582501311719</v>
+        <v>1.746556840237206</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.257923862586793</v>
@@ -21198,7 +21090,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.752911304689103</v>
+        <v>1.739255810853211</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.196155634022168</v>
@@ -21287,7 +21179,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.770760756744343</v>
+        <v>1.760517143921549</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.260029063423272</v>
@@ -21376,7 +21268,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.781020479682351</v>
+        <v>1.771647851482058</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.262096509078275</v>
@@ -21465,7 +21357,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.774428162214437</v>
+        <v>1.766029286146854</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.993232792892695</v>
@@ -21554,7 +21446,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.775865365332508</v>
+        <v>1.764402406678132</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.157405748335221</v>
@@ -21643,7 +21535,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.774091853134785</v>
+        <v>1.758491022400569</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.896624647639714</v>
@@ -21732,7 +21624,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.747082314099149</v>
+        <v>1.73259996254334</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.699961579227812</v>
@@ -21821,7 +21713,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.740048641438576</v>
+        <v>1.723759389405593</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.368145215935558</v>
@@ -21910,7 +21802,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.742450285950123</v>
+        <v>1.722619744783442</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.283085288153329</v>
@@ -21999,7 +21891,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.734769409968537</v>
+        <v>1.714143962256195</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.067300720243745</v>
@@ -22285,7 +22177,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.669132536776255</v>
+        <v>1.662075033982026</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.442292608470937</v>
@@ -22374,7 +22266,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.669867176488136</v>
+        <v>1.665003346535508</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.638478002740512</v>
@@ -22463,7 +22355,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.663253590077246</v>
+        <v>1.659259279978897</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.843003717864919</v>
@@ -22552,7 +22444,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.662919949810746</v>
+        <v>1.653082094004325</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.926640630585291</v>
@@ -22641,7 +22533,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.648074259517708</v>
+        <v>1.645754992069224</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.786132444880672</v>
@@ -22730,7 +22622,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.642355994805718</v>
+        <v>1.634930238573907</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.897153015890334</v>
@@ -22819,7 +22711,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.660562528684258</v>
+        <v>1.651532516728305</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.575315377418389</v>
@@ -22908,7 +22800,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.666143184421673</v>
+        <v>1.65785488318332</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.695551717108652</v>
@@ -22997,7 +22889,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.662315788888527</v>
+        <v>1.657444980776599</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.656031466746511</v>
@@ -23086,7 +22978,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.66365179425311</v>
+        <v>1.659944656557744</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.789865746687294</v>
@@ -23175,7 +23067,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.670249060285103</v>
+        <v>1.665899769939433</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.701740988375551</v>
@@ -23264,7 +23156,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.680713065753512</v>
+        <v>1.672973945383201</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.764618395882629</v>
@@ -23353,7 +23245,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.684948496139985</v>
+        <v>1.66968494847663</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.805831699781996</v>
@@ -23442,7 +23334,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.671351055575189</v>
+        <v>1.650860430673645</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.69809266444717</v>
@@ -23531,7 +23423,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.663621117386539</v>
+        <v>1.64064908229186</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.739959083253327</v>
@@ -23620,7 +23512,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.655894132917069</v>
+        <v>1.631279045139664</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.784109470203256</v>
@@ -23709,7 +23601,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.660013236782549</v>
+        <v>1.636488086735969</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.031496505805878</v>
@@ -23798,7 +23690,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.666746251750441</v>
+        <v>1.6426170526666</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.767990665662722</v>
@@ -23887,7 +23779,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.681237944732078</v>
+        <v>1.657596745887348</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.653828315877693</v>
@@ -23976,7 +23868,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.676863370476006</v>
+        <v>1.649373697220651</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.74445218918762</v>
@@ -24065,7 +23957,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.682029664553048</v>
+        <v>1.653568891459697</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.228069775764781</v>
@@ -24154,7 +24046,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.657594220527479</v>
+        <v>1.635481142257342</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.068755946657397</v>
@@ -24243,7 +24135,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.654241646138165</v>
+        <v>1.634081231259179</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.981850185545107</v>
@@ -24332,7 +24224,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.647280967031162</v>
+        <v>1.628784387671162</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.134811982808031</v>
@@ -24421,7 +24313,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.633464790865203</v>
+        <v>1.615887942994786</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.299148849740861</v>
@@ -24510,7 +24402,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.626075535010915</v>
+        <v>1.606443120723773</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.248338084628657</v>
@@ -24599,7 +24491,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.621862818302236</v>
+        <v>1.60216793398825</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.095620932069342</v>
@@ -24688,7 +24580,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.625562200281573</v>
+        <v>1.607620044538293</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.978863789056504</v>
@@ -24777,7 +24669,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.614920120149676</v>
+        <v>1.601495260286108</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.69891615474972</v>
@@ -24866,7 +24758,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.608445692723775</v>
+        <v>1.600307605025356</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.96303663196307</v>
@@ -24955,7 +24847,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.607000953184462</v>
+        <v>1.597037740206402</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.881976977546803</v>
@@ -25044,7 +24936,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.623269551138904</v>
+        <v>1.604839198606978</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.845000779987338</v>
@@ -25133,7 +25025,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.622014829364228</v>
+        <v>1.601276700255811</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.010287843162286</v>
@@ -25222,7 +25114,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.609565713612349</v>
+        <v>1.589794485147358</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.90180668772008</v>
@@ -25311,7 +25203,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.620166357675581</v>
+        <v>1.603285167510276</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.709179352043354</v>
@@ -25400,7 +25292,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.627691439571711</v>
+        <v>1.614136649655959</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.707539193554631</v>
@@ -25489,7 +25381,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.650315002103951</v>
+        <v>1.635648377907092</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.107494367275718</v>
@@ -25578,7 +25470,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.653247674313259</v>
+        <v>1.634871971461077</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.052258722217849</v>
@@ -25667,7 +25559,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.651811477960029</v>
+        <v>1.636796443403864</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.78428558990481</v>
@@ -25756,7 +25648,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.656971602620333</v>
+        <v>1.635092185169085</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.658011605164937</v>
@@ -25845,7 +25737,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.66231719848461</v>
+        <v>1.640667183972856</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.671798746588232</v>
@@ -25934,7 +25826,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.670430043414879</v>
+        <v>1.652345169432195</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.871538344902361</v>
@@ -26023,7 +25915,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.707230235894259</v>
+        <v>1.689032048389424</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.731658256814995</v>
@@ -26112,7 +26004,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.699150548971866</v>
+        <v>1.691997368417014</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.875183575454674</v>
@@ -26201,7 +26093,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.71164345104554</v>
+        <v>1.696812591094349</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.780536742342494</v>
@@ -26290,7 +26182,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.706378104000431</v>
+        <v>1.69808370822281</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.767658914918394</v>
@@ -26379,7 +26271,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.703157561821761</v>
+        <v>1.69510933973177</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.784368807553721</v>
@@ -26468,7 +26360,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.692662115568454</v>
+        <v>1.688928837155496</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.104509286312416</v>
@@ -26557,7 +26449,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.709113893755117</v>
+        <v>1.703969455259196</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.727867549285189</v>
@@ -26646,7 +26538,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.709197788322503</v>
+        <v>1.707466404762732</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.703649771468767</v>
@@ -26735,7 +26627,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.708741478299471</v>
+        <v>1.704360658870581</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.019387822534861</v>
@@ -26824,7 +26716,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.703908569077031</v>
+        <v>1.697320440613504</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.905699535894861</v>
@@ -26913,7 +26805,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.718250453526449</v>
+        <v>1.711642045764245</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.970262635662574</v>
@@ -27002,7 +26894,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.719954387862098</v>
+        <v>1.711954565362461</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.188681216006551</v>
@@ -27091,7 +26983,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.722745647045561</v>
+        <v>1.718805756869511</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.076179122280119</v>
@@ -27180,7 +27072,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.713249568581474</v>
+        <v>1.705320005670996</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.370346410836907</v>
@@ -27269,7 +27161,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.710913163628978</v>
+        <v>1.701523568033932</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.047755599605012</v>
@@ -27358,7 +27250,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.690314974197572</v>
+        <v>1.678497756941074</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.624053954412519</v>
@@ -27447,7 +27339,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.677831918083553</v>
+        <v>1.666087175607804</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.967872458696954</v>
@@ -27536,7 +27428,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.661819391487823</v>
+        <v>1.651511403419631</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.905727366773388</v>
@@ -27625,7 +27517,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.672907314434208</v>
+        <v>1.664335538572437</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.96387688488103</v>
@@ -27911,7 +27803,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.691750191581376</v>
+        <v>1.663924743590358</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.826291089148465</v>
@@ -28000,7 +27892,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.709721060657957</v>
+        <v>1.67749669036523</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.925496558964932</v>
@@ -28089,7 +27981,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.724271146001954</v>
+        <v>1.693362458360305</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.742728739066302</v>
@@ -28178,7 +28070,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.746116443291165</v>
+        <v>1.709527311209691</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.100718746994477</v>
@@ -28267,7 +28159,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.755629709305824</v>
+        <v>1.71726694780653</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.529915355469544</v>
@@ -28356,7 +28248,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.748698498696144</v>
+        <v>1.70914463071701</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.488324438898104</v>
@@ -28445,7 +28337,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.740046404068962</v>
+        <v>1.706968856345253</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.510102672936867</v>
@@ -28534,7 +28426,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.73832404041198</v>
+        <v>1.705445273024779</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.296930517213783</v>
@@ -28623,7 +28515,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.730645912596159</v>
+        <v>1.693685764628735</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.321306611262613</v>
@@ -28712,7 +28604,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.723922588884464</v>
+        <v>1.693835850048363</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.196305310389235</v>
@@ -28801,7 +28693,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.713772586708227</v>
+        <v>1.679140114164095</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.448811944977609</v>
@@ -28890,7 +28782,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.708886707747951</v>
+        <v>1.67369565219845</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.255795743377475</v>
@@ -28979,7 +28871,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.668424463744594</v>
+        <v>1.641581077781856</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.135264277291408</v>
@@ -29068,7 +28960,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.658601190597909</v>
+        <v>1.635738000663542</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.316506686628355</v>
@@ -29157,7 +29049,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.655197756810568</v>
+        <v>1.637710806089152</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.222766446740352</v>
@@ -29246,7 +29138,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.651478178759657</v>
+        <v>1.629381002250985</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.173040505572147</v>
@@ -29335,7 +29227,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.62948017494612</v>
+        <v>1.613556789062463</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.042630492507681</v>
@@ -29424,7 +29316,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.619896691146128</v>
+        <v>1.606317550198748</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.253127972392695</v>
@@ -29513,7 +29405,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.625597096646463</v>
+        <v>1.619599638599574</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.91867348225048</v>
@@ -29602,7 +29494,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.616877598037076</v>
+        <v>1.611140595548005</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.228953872001584</v>
@@ -29691,7 +29583,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.614210871616428</v>
+        <v>1.617219002785172</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.012002591772327</v>
@@ -29780,7 +29672,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.623911710102366</v>
+        <v>1.625913488100439</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.249979963643534</v>
@@ -29869,7 +29761,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.622686851503609</v>
+        <v>1.628202055625821</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.059607306383889</v>
@@ -29958,7 +29850,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.619629194628582</v>
+        <v>1.624821418188158</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.995979071387068</v>
@@ -30047,7 +29939,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.620477923729636</v>
+        <v>1.626990061876491</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.22075304982086</v>
@@ -30136,7 +30028,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.625816000408714</v>
+        <v>1.626752472066675</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.152525702449677</v>
@@ -30225,7 +30117,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.627965654476066</v>
+        <v>1.629873202621637</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.184207404993356</v>
@@ -30314,7 +30206,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.656976191594336</v>
+        <v>1.652435772927213</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.915410356759957</v>
@@ -30403,7 +30295,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.651748703025248</v>
+        <v>1.647464358464384</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.141449575658152</v>
@@ -30492,7 +30384,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.645059554880823</v>
+        <v>1.639349357223612</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.119431129816146</v>
@@ -30581,7 +30473,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.632993171366263</v>
+        <v>1.636444917606509</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.954510018014109</v>
@@ -30670,7 +30562,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.63052181698262</v>
+        <v>1.630950098379387</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.918945893057315</v>
@@ -30759,7 +30651,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.635908121104607</v>
+        <v>1.631162770574647</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.193836917835931</v>
@@ -30848,7 +30740,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.641483808156315</v>
+        <v>1.63163130631773</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.243268619135751</v>
@@ -30937,7 +30829,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.639409247266927</v>
+        <v>1.627899820654921</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.824737755326459</v>
@@ -31026,7 +30918,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.638741609539188</v>
+        <v>1.62345720175533</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.139727105147278</v>
@@ -31115,7 +31007,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.629684508186667</v>
+        <v>1.617709641153547</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.248750724419266</v>
@@ -31204,7 +31096,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.64280675976481</v>
+        <v>1.633745718377016</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.077598021220147</v>
@@ -31293,7 +31185,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.643039538983958</v>
+        <v>1.635489688645347</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.751623232503516</v>
@@ -31382,7 +31274,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.644895028452373</v>
+        <v>1.62993048521676</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.215720937706033</v>
@@ -31471,7 +31363,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.649889509816537</v>
+        <v>1.638937788117543</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.820094971996586</v>
@@ -31560,7 +31452,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.645116040467649</v>
+        <v>1.634839962762974</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.245232544842662</v>
@@ -31649,7 +31541,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.664466222278039</v>
+        <v>1.656915469868838</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.332901762501626</v>
@@ -31738,7 +31630,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.665924828274663</v>
+        <v>1.656062439005986</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.301984222177478</v>
@@ -31827,7 +31719,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.696190350754539</v>
+        <v>1.682411725478777</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.340998302470041</v>
@@ -31916,7 +31808,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.703475994729994</v>
+        <v>1.686477975292512</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.792025868830307</v>
@@ -32005,7 +31897,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.726729711112906</v>
+        <v>1.710819662914675</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.226871522931842</v>
@@ -32094,7 +31986,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.716794369397687</v>
+        <v>1.704981236539462</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.277434390925846</v>
@@ -32183,7 +32075,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.714947630583707</v>
+        <v>1.704323499394153</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.927357905613524</v>
@@ -32272,7 +32164,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.718666362869837</v>
+        <v>1.708348885888429</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.205808130587244</v>
@@ -32361,7 +32253,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.724538652795652</v>
+        <v>1.710524254406166</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.31436288449992</v>
@@ -32450,7 +32342,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.723895741171238</v>
+        <v>1.709781062873214</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.109391586705802</v>
@@ -32539,7 +32431,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.707760195050152</v>
+        <v>1.69415143579701</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.320817638201717</v>
@@ -32628,7 +32520,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.73046583765134</v>
+        <v>1.714518863456542</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.646408063226831</v>
@@ -32717,7 +32609,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.729913165132562</v>
+        <v>1.720749674742694</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.311073526610123</v>
@@ -32806,7 +32698,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.73119431211384</v>
+        <v>1.715984864277015</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.600604806581405</v>
@@ -32895,7 +32787,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.734698101758454</v>
+        <v>1.723614889414044</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.248378176545849</v>
@@ -32984,7 +32876,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.70029514729985</v>
+        <v>1.690698799437389</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.776604503174799</v>
@@ -33073,7 +32965,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.688407259067761</v>
+        <v>1.685074949525691</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.459696991388772</v>
@@ -33162,7 +33054,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.684045719241953</v>
+        <v>1.677083718585463</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.126396405131988</v>
@@ -33251,7 +33143,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.682569870175147</v>
+        <v>1.675429157322662</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.178600850979714</v>
@@ -33537,7 +33429,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.558440607428001</v>
+        <v>1.605359023338879</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.504813599978411</v>
@@ -33626,7 +33518,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.610512428386029</v>
+        <v>1.664627235132078</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.466920953882339</v>
@@ -33715,7 +33607,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.625928568178829</v>
+        <v>1.679905303572445</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.580778977780678</v>
@@ -33804,7 +33696,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.664130357847694</v>
+        <v>1.708859948706397</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.909745579000042</v>
@@ -33893,7 +33785,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.675184936181153</v>
+        <v>1.727505620604997</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.713137101202172</v>
@@ -33982,7 +33874,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.644307655088162</v>
+        <v>1.693598398047857</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.587316523542411</v>
@@ -34071,7 +33963,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.674864039821573</v>
+        <v>1.722514018766077</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.791038428564612</v>
@@ -34160,7 +34052,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.672171333663144</v>
+        <v>1.716672212006391</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.058324195333178</v>
@@ -34249,7 +34141,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.65904149200308</v>
+        <v>1.700404213085568</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.937308769020525</v>
@@ -34338,7 +34230,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.660901494290681</v>
+        <v>1.70426750922756</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.966211877915004</v>
@@ -34427,7 +34319,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.671184699051798</v>
+        <v>1.719609430076911</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.936815188042179</v>
@@ -34516,7 +34408,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.667884277179306</v>
+        <v>1.710138457284567</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.029094629863939</v>
@@ -34605,7 +34497,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.642057256271283</v>
+        <v>1.68485329823524</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.731574604791684</v>
@@ -34694,7 +34586,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.623040641452037</v>
+        <v>1.667731444046471</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.771144074107561</v>
@@ -34783,7 +34675,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.614685833846622</v>
+        <v>1.657055945666655</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.738513324704685</v>
@@ -34872,7 +34764,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.626827300821357</v>
+        <v>1.661332266593831</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.712943210620339</v>
@@ -34961,7 +34853,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.627245196030368</v>
+        <v>1.656120826059847</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.705739574004771</v>
@@ -35050,7 +34942,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.637500114296445</v>
+        <v>1.662381743169526</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.939879257334038</v>
@@ -35139,7 +35031,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.642934294294011</v>
+        <v>1.674640003167948</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.686739100130719</v>
@@ -35228,7 +35120,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.635060421752318</v>
+        <v>1.657552814861728</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.430915872096945</v>
@@ -35317,7 +35209,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.653523587950162</v>
+        <v>1.67649636752363</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.027583547365451</v>
@@ -35406,7 +35298,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.632739687899759</v>
+        <v>1.658393171363749</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.9493046361249</v>
@@ -35495,7 +35387,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.632745137920495</v>
+        <v>1.661410350399958</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.886841113453691</v>
@@ -35584,7 +35476,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.630514675562899</v>
+        <v>1.659282937668426</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.982395598295263</v>
@@ -35673,7 +35565,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.629782959079149</v>
+        <v>1.657932344822245</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.243931965652955</v>
@@ -35762,7 +35654,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.627501470567055</v>
+        <v>1.649271459913022</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.955478772577877</v>
@@ -35851,7 +35743,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.621953565080221</v>
+        <v>1.641911880884057</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.819632104956185</v>
@@ -35940,7 +35832,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.640786171258258</v>
+        <v>1.660457132485789</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.670070860383646</v>
@@ -36029,7 +35921,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.647262066274351</v>
+        <v>1.670903129948155</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.240145631185949</v>
@@ -36118,7 +36010,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.63379118365065</v>
+        <v>1.657827048707548</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.109098445921791</v>
@@ -36207,7 +36099,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.612824946506073</v>
+        <v>1.647927640107208</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.971535107859677</v>
@@ -36296,7 +36188,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.615476731819844</v>
+        <v>1.651879869386149</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.107811718846571</v>
@@ -36385,7 +36277,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.61516715026921</v>
+        <v>1.646833812479008</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.032050475164674</v>
@@ -36474,7 +36366,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.596579702261114</v>
+        <v>1.631522933947332</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.751036665942608</v>
@@ -36563,7 +36455,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.595810622944464</v>
+        <v>1.637423432761166</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.830270368731234</v>
@@ -36652,7 +36544,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.604005960020459</v>
+        <v>1.649589698842965</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.774327790372441</v>
@@ -36741,7 +36633,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.611719105429366</v>
+        <v>1.658014758180815</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.875720821650195</v>
@@ -36830,7 +36722,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.610795846528025</v>
+        <v>1.651323718620666</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.381068426427377</v>
@@ -36919,7 +36811,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.560223342873277</v>
+        <v>1.607543469437084</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.298708434282438</v>
@@ -37008,7 +36900,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.559305165815253</v>
+        <v>1.603599755717332</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.278053932847937</v>
@@ -37097,7 +36989,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.556476265259323</v>
+        <v>1.60338204735765</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.280098838584594</v>
@@ -37186,7 +37078,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.565065395551017</v>
+        <v>1.615357235894576</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.29070283946815</v>
@@ -37275,7 +37167,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.560013973353935</v>
+        <v>1.610804585775637</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.29505225801918</v>
@@ -37364,7 +37256,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.557956605114854</v>
+        <v>1.608275805872375</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.28239627823225</v>
@@ -37453,7 +37345,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.567336752497945</v>
+        <v>1.616910406264105</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.40279320213413</v>
@@ -37542,7 +37434,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.586177121510568</v>
+        <v>1.629979003599173</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.395617109535344</v>
@@ -37631,7 +37523,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.589695469719773</v>
+        <v>1.634213230542683</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.353532387407419</v>
@@ -37720,7 +37612,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.564985934722642</v>
+        <v>1.608322261703255</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.295977066490733</v>
@@ -37809,7 +37701,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.585301816105803</v>
+        <v>1.627097093377685</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.392716236431186</v>
@@ -37898,7 +37790,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.586849466563216</v>
+        <v>1.628039233651378</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.424937560798086</v>
@@ -37987,7 +37879,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.597952794854612</v>
+        <v>1.635488736123435</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.395719086102619</v>
@@ -38076,7 +37968,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.590970717023273</v>
+        <v>1.624646646863101</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.356758316907025</v>
@@ -38165,7 +38057,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.621833569416073</v>
+        <v>1.649055194159354</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.126804170170518</v>
@@ -38254,7 +38146,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.679662443525835</v>
+        <v>1.706966806984456</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.466198527070582</v>
@@ -38343,7 +38235,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.671874683430783</v>
+        <v>1.695658142734941</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.471906803682346</v>
@@ -38432,7 +38324,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.648094180643511</v>
+        <v>1.67347327648659</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.479353495138759</v>
@@ -38521,7 +38413,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.645617134765222</v>
+        <v>1.673610551795335</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.585490241851805</v>
@@ -38610,7 +38502,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.653828462838775</v>
+        <v>1.678386274685558</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.716534777493493</v>
@@ -38699,7 +38591,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.671908124052949</v>
+        <v>1.696381929973803</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.421843424320966</v>
@@ -38788,7 +38680,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.676730580180418</v>
+        <v>1.700200979033933</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.435352865816605</v>
@@ -38877,7 +38769,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.652940681197185</v>
+        <v>1.688600353902972</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.578187366245987</v>
